--- a/biology/Médecine/Liste_de_plantes_médicinales_de_France/Liste_de_plantes_médicinales_de_France.xlsx
+++ b/biology/Médecine/Liste_de_plantes_médicinales_de_France/Liste_de_plantes_médicinales_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+          <t>Liste_de_plantes_médicinales_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Sommaire :
 Haut – A
@@ -522,7 +534,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+          <t>Liste_de_plantes_médicinales_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,8 +554,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A
-Abricotier (Prunus armeniaca)
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Abricotier (Prunus armeniaca)
 Absinthe (Artemisia absinthium L.)
 Acanthe à feuilles molles (Acanthus mollis)
 Achillée mille-feuilles (Achillea millefolium L.)
@@ -586,9 +603,43 @@
 Aubépine (volet médicinal) (Crataegus laevigata et Crataegus monogyna)
 Aulne blanc (Alnus incana)
 Aulne glutineux (Alnus glutinosa)
-Avoine cultivée (Avena sativa)
-B
-Badiane ou Anis étoilé (Illicium verum)
+Avoine cultivée (Avena sativa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Badiane ou Anis étoilé (Illicium verum)
 Ballote (Ballota foetida)
 Bambou géant (Bambusa arundinacea)
 Barbarée commune (Barbarea vulgaris)
@@ -608,9 +659,43 @@
 Bugle rampant (Ajuga reptans)
 Buglosse officinale (Anchusa officinalis)
 Buis (Buxus sempervirens)
-Busserole (ou Raisin d'ours) (Arctostaphylos uva-ursi)
-C
-Camomille (Anthemis nobilis)
+Busserole (ou Raisin d'ours) (Arctostaphylos uva-ursi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Camomille (Anthemis nobilis)
 Calament à grandes fleurs (Calamintha grandiflora)
 Calament officinale (Clinopodium nepeta. jadis Calamintha officinalis)
 Callune (Calluna vulgaris)
@@ -654,16 +739,84 @@
 Coriandre (Coriandrum sativum)
 Courge (Curcubita pepo)
 Cuscute du thym (Cuscuta epithymum)
-Cyprès sempervirent (Cupressus sempervirens)
-D
-Datura stramoine (Datura stramonium)
+Cyprès sempervirent (Cupressus sempervirens)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Datura stramoine (Datura stramonium)
 Digitale pourpre (Digitalis purpurea)
 Diplotaxis à feuilles étroites (Diplotaxis tenuifolia)
 Diplotaxis fausse roquette (Diplotaxis erucoides)
 Doradille noire (Asplenium adiantum-nigrum)
-Droséra à feuilles rondes (Drosera rotundifolia)
-E
-Échinacée à feuilles aigües (Echinacea angustifolia)
+Droséra à feuilles rondes (Drosera rotundifolia)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Échinacée à feuilles aigües (Echinacea angustifolia)
 Échinacée pourpre (Echinacea purpurea)
 Églantier (Rosa canina)
 Égopode podagraire (Aegopodium podagraria)
@@ -677,18 +830,86 @@
 Eucalyptus (Eucalyptus globulus)
 Eupatoire à feuilles de chanvre (Eupatorium cannabinum)
 Euphorbe réveille-matin (Euphorbia helioscopia)
-Euphraise officinale (Euphrasia officinalis)
-F
-Fenouil commun (Foeniculum Vulgare)
+Euphraise officinale (Euphrasia officinalis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fenouil commun (Foeniculum Vulgare)
 Fenouil des Alpes (Meum athamanticum)
 Flouve odorante (Anthoxantum odoratum)
 Fougère mâle (Dryopteris filix-mas)
 Fraisier des bois (Fragaria vesca)
 Framboisier (Rubus idaus)
 Fumeterre officinale (Fumaria officinalis)
-Fusain d'Europe (Euonymus europaeus)
-G
-Galéga officinal (Galega officinalis)
+Fusain d'Europe (Euonymus europaeus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Galéga officinal (Galega officinalis)
 Genévrier commun (Juniperus communis)
 Genévrier cade (Juniperus oxycedrus)
 Gentiane jaune (Gentiana lutea)
@@ -696,26 +917,196 @@
 Gommier bleu (Eucalyptus globulus)
 Grenadier (Punica granatum)
 Gui commun (Viscum album)
-Guimauve officinale (Althaea officinalis)
-H
-Houblon (Humulus lupulus) plante médicinale de l'année 2007
-Hysope (Hyssopus officinalis)
-I
-Immortelle commune
-Iris
-J
-Jusquiame noire (Hyoscyamus niger)
-L
-Laîche des sables (Carex arenaria)
+Guimauve officinale (Althaea officinalis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Houblon (Humulus lupulus) plante médicinale de l'année 2007
+Hysope (Hyssopus officinalis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Immortelle commune
+Iris</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Jusquiame noire (Hyoscyamus niger)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Laîche des sables (Carex arenaria)
 Lamier blanc ou ortie blanche (Lamium album)
 Lierre terrestre (Glechoma hederacae)
 Lierre grimpant (Hedera helix)
 Lin cultivé (Linum usitatissimum)
 Linaire commune  (Linaria vulgaris)
 Lycopode en massue (Lycopodium clavatum)
-Lavande vraie (Lavandula angustifolia)
-M
-Manuka (Leptospermum scoparium)
+Lavande vraie (Lavandula angustifolia)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Manuka (Leptospermum scoparium)
 Marron d'Inde (Aesculus hippocastanum)
 Mauve sauvage ou mauve sylvestre, grande mauve (Malva sylvestris)
 Mélilot jaune (Melilotus officinalis)
@@ -728,17 +1119,119 @@
 Millepertuis androsème (Hypericum androsaemum)
 Millepertuis perforé (Hypericum perforatum)
 Muflier à feuilles de Pâquerette (Anarrhinum bellidifolium)
-Muguet de mai (Convallaria majalis)
-N
-Noisetier (Corylus L.)
-O
-Oignon (Allium cepa)
+Muguet de mai (Convallaria majalis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Noisetier (Corylus L.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Oignon (Allium cepa)
 Oranger amer, ou Bigaradier (Citrus aurantium)
 Origan ou Marjolaine sauvage (Origanum vulgare)
 Ortie blanche (Lamium album)
-Grande ortie (Urtica dioica)
-P
-Panicaut champêtre (Eryngium campestre)
+Grande ortie (Urtica dioica)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Panicaut champêtre (Eryngium campestre)
 Panicaut maritime (Eryngium maritimum )
 Pâquerette (Bellis perennis)
 Pavot de Californie (Escholtzia californica)
@@ -761,17 +1254,85 @@
 Grande prêle (Equisetum telmateia)
 Primevère officinale (Primula veris)
 Prunelier (Prunus spinosa)
-Pulmonaire officinale (Pulmonaria officinalis)
-R
-Réglisse (Glycyrrhiza glabra L.)
+Pulmonaire officinale (Pulmonaria officinalis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Réglisse (Glycyrrhiza glabra L.)
 Renouée des oiseaux  (Polygonum aviculare )
 Ronce (Rubus fructicosus)
 Romarin (Rosmarinus officinalis)
 Roquette de mer (Cakile maritima)
 Roquette (Eruca sativa)
-Rue officinale ou Rue fétide (Ruta graveolens)
-S
-Sabot de Vénus (Cypripedium calceolus)
+Rue officinale ou Rue fétide (Ruta graveolens)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sabot de Vénus (Cypripedium calceolus)
 Sapin blanc (Abies alba)
 Sarriette Sarriette des jardins (Satureja hortensis) et Sarriette vivace (Satureja montana)
 Sauge officinale(Salvia officinalis)
@@ -782,17 +1343,85 @@
 Souchet rond (Cyperus rotundus)
 Souci des champs (Calendula arvensis)
 Souci officinal (Calendula officinalis)
-Sureau noir (Sambucus nigra)
-T
-Tanaisie commune (Tanacetum vulgare)
+Sureau noir (Sambucus nigra)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tanaisie commune (Tanacetum vulgare)
 Tilleul à grandes feuilles (Tilia platyphyllos)
 Tilleul à petites feuilles (Tilia cordata)
 Tilleul argenté (Tilia tomantosa)
 Tussilage (Tussilago farfara)
 Thym commun (Thymus vulgaris)
-Thym serpolet (Thymus serpyllum)
-V
-Valériane officinale (Valeriana officinalis)
+Thym serpolet (Thymus serpyllum)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Index des noms vulgaires</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Valériane officinale (Valeriana officinalis)
 Verge d'or (Solidago virgaurea)
 Vergerette du Canada (Erigeron canadensis)
 Véronique petit-chêne (Veronica chamaedrys)
@@ -800,44 +1429,80 @@
 Verveine officinale (Verbena officinale)
 Verveine citronnée (Aloysia citrodora)
 Vigne rouge (Vitis sp.)
-Vigne vierge (Ampelopsis veitchii auct., synonyme de Parthenocissus tricuspidata (Siebold &amp; Zucc.) Planch[1].)
+Vigne vierge (Ampelopsis veitchii auct., synonyme de Parthenocissus tricuspidata (Siebold &amp; Zucc.) Planch.)
 Violette odorante (Viola odorata)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_de_plantes_m%C3%A9dicinales_de_France</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Index des noms botaniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Clé d'entrée : le nom latin.
 Le nom botanique des plantes comprend trois éléments :
 nom du genre (exemple Artemisia), suivi du
 nom de l'espèce (exemple absinthium), suivi du
-nom du premier descripteur de la plante (celui qui a le premier donné le nom botanique à la plante), abrégé pour les auteurs les plus connus, exemple : L. pour Carl von Linné.
-A
-Abies alba
+nom du premier descripteur de la plante (celui qui a le premier donné le nom botanique à la plante), abrégé pour les auteurs les plus connus, exemple : L. pour Carl von Linné.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Abies alba
 Acanthus mollis
 Acer campestre
 Achillea millefolium
@@ -900,9 +1565,43 @@
 Asplenium scolopendrium
 Atropa belladonna
 Arctostaphylos uva-ursi
-Avena sativa
-B
-Ballota foetida
+Avena sativa</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Ballota foetida
 Bambusa arundinacea
 Barbarea vulgaris
 Bellis perennis
@@ -912,9 +1611,43 @@
 Betula verrucosa
 Borago officinalis
 Bryonia dioica
-Buxus sempervirens
-C
-Cakile maritima
+Buxus sempervirens</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Cakile maritima
 Calamintha grandiflora
 Calamintha officinalis
 Calendula arvensis
@@ -957,9 +1690,43 @@
 Cynara cardunculus
 Cynara scolymus
 Cyperus rotundus
-Cypripedium calceolus
-D
-Datura stramonium
+Cypripedium calceolus</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Datura stramonium
 Daucus carota
 Daucus sativus
 Digitalis purpurea
@@ -967,9 +1734,43 @@
 Diplotaxis tenuifolia
 Dipsacus fullonum
 Drosera rotundifolia
-Dryopteris filix-mas
-E
-Echinacea angustifolia
+Dryopteris filix-mas</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Echinacea angustifolia
 Echinacea purpurea
 Elytrigia repens
 Epilobium dodonaei
@@ -990,58 +1791,398 @@
 Eupatorium cannabinum
 Euphrasia officinalis
 Euphorbia helioscopia
-Euonymus europaeus
-F
-Foeniculum Vulgare
+Euonymus europaeus</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Foeniculum Vulgare
 Fragaria vesca
-Fumaria officinalis
-G
-Galega officinalis
+Fumaria officinalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Galega officinalis
 Galium odoratum
 Gentiana luthea
 Geum urbanum
 Glechoma hederacea
-Glycyrrhiza glabra L.
-H
-Hedera helix
+Glycyrrhiza glabra L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Hedera helix
 Hepatica nobilis
 Helichrysum stoechas
 Humulus lupulus
 Hyoscyamus niger
 Hypericum perforatum
-Hyssopus officinalis
-I
-Illicium verum
+Hyssopus officinalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Illicium verum
 Inula helenium
-Iris
-J
-Juniperus communis
-Juniperus oxycedrus
-L
-Lamium album
+Iris</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Juniperus communis
+Juniperus oxycedrus</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Lamium album
 Lavandula angustifolia
 Leonurus cardiacaL.
 Linaria vulgaris
 Linum usitatissimum
 Lithospermum officinale
-Lycopodium clavatum
-M
-Malva sylvestris
+Lycopodium clavatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Malva sylvestris
 Melissa officinalis
 Melilotus officinalis
 Melittis melissophyllum
 Mentha
 Menyanthes trifoliata
 Meum athamanticum
-Myosoton aquaticum
-N
-Nerium oleander
-O
-Ocimum basilicum
+Myosoton aquaticum</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Nerium oleander</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Ocimum basilicum
 Ononis spinosa
-Origanum vulgare
-P
-Papaver rhoeas
+Origanum vulgare</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Papaver rhoeas
 Papaver somniferum
 Physalis alkekengi
 Pimpinella anisum
@@ -1057,26 +2198,162 @@
 Prunella vulgaris
 Prunus spinosa
 Pulmonaria officinalis
-Punica granatum
-Q
-Quercus petraea
-R
-Ribes nigrum
+Punica granatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Quercus petraea</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Ribes nigrum
 Rosmarinus officinalis
 Rosa canina
 Rubus idaus
 Rubus fruticosus
-Ruta graveolens
-S
-Sambucus nigra
+Ruta graveolens</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Sambucus nigra
 Satureja : Satureja hortensis et Satureja montana
 Salvia officinalis
 Semen contra
 Solidago virgaurea
 Symphytum officinalis
-Sisymbrium officinale
-T
-Tanacetum vulgare
+Sisymbrium officinale</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Tanacetum vulgare
 Taraxacum sp.
 Tilia cordata
 Tilia platyphyllos
@@ -1085,11 +2362,79 @@
 Thymus serpyllum
 Tussilago farfara
 Trifolium repens
-Trifolium pratense
-U
-Urtica dioica
-V
-Vaccinium myrtillus L.
+Trifolium pratense</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Urtica dioica</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_médicinales_de_France</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_m%C3%A9dicinales_de_France</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Index des noms botaniques</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Vaccinium myrtillus L.
 Vaccinium vitis-idaea L.
 Valeriana officinalis
 Verbascum thapsus
